--- a/Backup/contohkasus.xlsx
+++ b/Backup/contohkasus.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5DACA8-C0BF-4866-8D20-4196044A975C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A935BBE1-DFD1-4364-B446-E7525192E033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="18960" windowHeight="10092" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identitas" sheetId="2" r:id="rId1"/>
     <sheet name="Pegawai" sheetId="3" r:id="rId2"/>
     <sheet name="Instansi" sheetId="4" r:id="rId3"/>
+    <sheet name="manausr" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="189">
   <si>
     <t>Residivis</t>
   </si>
@@ -508,6 +509,87 @@
   </si>
   <si>
     <t>Instansi10</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Nip</t>
+  </si>
+  <si>
+    <t>No Hp</t>
+  </si>
+  <si>
+    <t>Unit Kerja</t>
+  </si>
+  <si>
+    <t>Tipe</t>
+  </si>
+  <si>
+    <t>Kanwil</t>
+  </si>
+  <si>
+    <t>UPT</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Aktif Level</t>
+  </si>
+  <si>
+    <t>userlima</t>
+  </si>
+  <si>
+    <t>cahtes</t>
+  </si>
+  <si>
+    <t>tes@gmail.com</t>
+  </si>
+  <si>
+    <t>ditjenpas</t>
+  </si>
+  <si>
+    <t>Pusat</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>userenam</t>
+  </si>
+  <si>
+    <t>polda</t>
+  </si>
+  <si>
+    <t>Jambi</t>
+  </si>
+  <si>
+    <t>Kepala Seksi</t>
+  </si>
+  <si>
+    <t>usertuju</t>
+  </si>
+  <si>
+    <t>polsek</t>
+  </si>
+  <si>
+    <t>Lampung</t>
+  </si>
+  <si>
+    <t>Lapas Kelas I Bandar Lampung</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>userdelapan</t>
+  </si>
+  <si>
+    <t>Administrasi</t>
   </si>
 </sst>
 </file>
@@ -623,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -712,6 +794,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1806,7 +1903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078FEB78-08A6-4D78-B973-ED13C2CD5544}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2111,4 +2208,192 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C04E07B-4841-44ED-96F9-C6FF05CC89B3}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A1" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="36">
+        <v>834762739645783</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="36">
+        <v>8637465347234</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A3" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="36">
+        <v>834762739645783</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="36">
+        <v>8637465347234</v>
+      </c>
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="36">
+        <v>834762739645783</v>
+      </c>
+      <c r="D4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="36">
+        <v>8637465347234</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A5" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="36">
+        <v>834762739645783</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="36">
+        <v>8637465347234</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>